--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.mejia.SOPHOS\Documents\UiPath\ReporteDefectosMantis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faber.ospina\Documents\UiPath\ReporteDefectosMantis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FF4B09-2846-43BB-AEF3-C121F749C9B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652A5BAB-2F59-42D9-859D-941F16C0FA36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Data\InformacionDefectos.xlsx</t>
+  </si>
+  <si>
+    <t>mailReporte</t>
+  </si>
+  <si>
+    <t>faber.ospina@sophossolutions.com</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -633,7 +639,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
